--- a/owlcms/src/main/resources/templates/competitionResults/Total-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/Total-LETTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782A36C1-468A-4200-8929-58E3429A1DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429FA236-A37B-44E6-A165-06BAC95B7F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23025" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1252,22 +1252,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1752,7 +1752,7 @@
   <dimension ref="A1:X117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="U6" sqref="U6:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1907,10 +1907,10 @@
       <c r="T6" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="97" t="s">
+      <c r="U6" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="98"/>
+      <c r="V6" s="100"/>
       <c r="X6"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,8 +1968,8 @@
       </c>
       <c r="S7" s="95"/>
       <c r="T7" s="93"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="100"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="102"/>
     </row>
     <row r="8" spans="1:24" s="21" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
@@ -2070,10 +2070,10 @@
       <c r="T10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="101" t="s">
+      <c r="U10" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="102"/>
+      <c r="V10" s="98"/>
     </row>
     <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
